--- a/data/clinical_examples/test_clinicaldata.xlsx
+++ b/data/clinical_examples/test_clinicaldata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam2392/Documents/eegio/data/clinical_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D87417D-D396-8547-A58E-DDA903F803A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7DBBBF-3CD4-4E48-BCB7-314C04A94B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{3613ACA9-70DC-9341-9578-D2DE191679B9}"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{3613ACA9-70DC-9341-9578-D2DE191679B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>patient_id</t>
   </si>
@@ -57,9 +57,6 @@
     <t>imaging_outcome_notes</t>
   </si>
   <si>
-    <t>bad_channels</t>
-  </si>
-  <si>
     <t>wm_contacts</t>
   </si>
   <si>
@@ -151,6 +148,21 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>bad_contacts</t>
+  </si>
+  <si>
+    <t>out_contacts</t>
+  </si>
+  <si>
+    <t>C'13-16</t>
+  </si>
+  <si>
+    <t>rr13-16</t>
+  </si>
+  <si>
+    <t>la10-16</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA3295-E108-A141-A0DF-52F076282C70}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -796,18 +808,19 @@
     <col min="7" max="7" width="11.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="47.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="15"/>
+    <col min="10" max="10" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="102">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="102">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -815,57 +828,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="85">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="102">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -880,49 +896,52 @@
         <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="9">
+      <c r="M2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="9">
         <v>1</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>11</v>
+      <c r="Q2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="18" customFormat="1">
+    <row r="3" spans="1:18" s="18" customFormat="1">
       <c r="A3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="18">
         <v>4</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="18">
         <v>33</v>
@@ -931,38 +950,41 @@
         <v>25</v>
       </c>
       <c r="G3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="19">
-        <v>2</v>
-      </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="18" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" s="18" customFormat="1" ht="17">
+    <row r="4" spans="1:18" s="18" customFormat="1" ht="17">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
@@ -977,35 +999,38 @@
         <v>10</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" s="18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>11</v>
+      <c r="Q4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1042,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1 E1:H1 C1:C3 O1:O3 I1:I3">
+  <conditionalFormatting sqref="R1 E1:H1 C1:C3 P1:P3 I1:I3">
     <cfRule type="containsBlanks" dxfId="11" priority="16">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
@@ -1030,7 +1055,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2 E2:H2">
+  <conditionalFormatting sqref="R2 E2:H2">
     <cfRule type="containsBlanks" dxfId="8" priority="13">
       <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
@@ -1043,12 +1068,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3 E3:H3">
+  <conditionalFormatting sqref="R3 E3:H3">
     <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 O4">
+  <conditionalFormatting sqref="C4 P4">
     <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
@@ -1061,7 +1086,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4 E4:H4">
+  <conditionalFormatting sqref="R4 E4:H4">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>

--- a/data/clinical_examples/test_clinicaldata.xlsx
+++ b/data/clinical_examples/test_clinicaldata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam2392/Documents/eegio/data/clinical_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7DBBBF-3CD4-4E48-BCB7-314C04A94B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435ABF0-B364-2848-93A4-C3831308EF2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{3613ACA9-70DC-9341-9578-D2DE191679B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>patient_id</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>la10-16</t>
+  </si>
+  <si>
+    <t>resected_contacts</t>
+  </si>
+  <si>
+    <t>ablated_contacts</t>
   </si>
 </sst>
 </file>
@@ -791,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA3295-E108-A141-A0DF-52F076282C70}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -814,13 +820,15 @@
     <col min="13" max="13" width="47.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" style="14" customWidth="1"/>
     <col min="15" max="15" width="6" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="15"/>
+    <col min="16" max="16" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="102">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="102">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -866,17 +874,23 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="102">
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="102">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -920,17 +934,19 @@
         <v>14</v>
       </c>
       <c r="O2" s="12"/>
-      <c r="P2" s="9">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="9">
         <v>1</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="18" customFormat="1">
+    <row r="3" spans="1:20" s="18" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>33</v>
       </c>
@@ -971,15 +987,17 @@
         <v>31</v>
       </c>
       <c r="O3" s="22"/>
-      <c r="P3" s="19">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="19">
         <v>2</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="18" t="s">
+      <c r="S3" s="19"/>
+      <c r="T3" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" ht="17">
+    <row r="4" spans="1:20" s="18" customFormat="1" ht="17">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -1023,13 +1041,15 @@
         <v>31</v>
       </c>
       <c r="O4" s="22"/>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1042,7 +1062,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1 E1:H1 C1:C3 P1:P3 I1:I3">
+  <conditionalFormatting sqref="T1 E1:H1 C1:C3 R1:R3 I1:I3">
     <cfRule type="containsBlanks" dxfId="11" priority="16">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
@@ -1055,7 +1075,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 E2:H2">
+  <conditionalFormatting sqref="T2 E2:H2">
     <cfRule type="containsBlanks" dxfId="8" priority="13">
       <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
@@ -1068,12 +1088,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3 E3:H3">
+  <conditionalFormatting sqref="T3 E3:H3">
     <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 P4">
+  <conditionalFormatting sqref="C4 R4">
     <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
@@ -1086,7 +1106,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4 E4:H4">
+  <conditionalFormatting sqref="T4 E4:H4">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
